--- a/news_report_20250824_styled.xlsx
+++ b/news_report_20250824_styled.xlsx
@@ -497,7 +497,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>The people stuck using ancient Windows computers</t>
+          <t>Watch: Solar-powered cars start epic Australian outback race</t>
         </is>
       </c>
     </row>
@@ -511,42 +511,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fans loved her new album. The thing was, she hadn't released one</t>
+          <t>My ex stalked me, so I joined a 'dating safety' app. Then my address was leaked</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Is this how AI might eliminate humanity?</t>
+          <t>Fans loved her new album. The thing was, she hadn't released one</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>The people stuck using ancient Windows computers</t>
+          <t>Watch: Solar-powered cars start epic Australian outback race</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>How researchers recreated faces of 2,500-year-old skulls found in India</t>
+          <t>The people stuck using ancient Windows computers</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>How foods mess with the medicines we take</t>
+          <t>How researchers recreated faces of 2,500-year-old skulls found in India</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>My ex stalked me, so I joined a 'dating safety' app. Then my address was leaked</t>
+          <t>How foods mess with the medicines we take</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hundreds of thousands of Grok chats exposed in Google results</t>
+          <t>Is this how AI might eliminate humanity?</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>people</t>
+          <t>watch</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -691,7 +691,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>stuck</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -701,7 +701,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>using</t>
+          <t>powered</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -711,7 +711,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ancient</t>
+          <t>cars</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -721,7 +721,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>windows</t>
+          <t>start</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -731,7 +731,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>computers</t>
+          <t>epic</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -741,7 +741,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sign</t>
+          <t>australian</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -751,7 +751,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tech</t>
+          <t>outback</t>
         </is>
       </c>
       <c r="B11" t="n">
